--- a/src/resources/data/testData.xlsx
+++ b/src/resources/data/testData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jytesh.punjwani\Documents\playwright-framework\src\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jytesh.punjwani\Documents\GitHub\10pplaywright-framework\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51415528-49D6-469B-986D-D4DF67D72767}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8BD933-5B6D-4E35-A984-95761545AF78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,7 +808,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +878,7 @@
         <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -897,7 +897,7 @@
         <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>

--- a/src/resources/data/testData.xlsx
+++ b/src/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jytesh.punjwani\Documents\GitHub\10pplaywright-framework\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8BD933-5B6D-4E35-A984-95761545AF78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC9C61E-73BB-4AA8-A802-20BE9D90A5D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="145">
   <si>
     <t>TestID</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>select * from Tbl_users</t>
+  </si>
+  <si>
+    <t>jytesh</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1211,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A954124-2682-439B-BF75-C124F90C5D43}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1292,7 +1295,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>

--- a/src/resources/data/testData.xlsx
+++ b/src/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jytesh.punjwani\Documents\GitHub\10pplaywright-framework\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC9C61E-73BB-4AA8-A802-20BE9D90A5D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EFBB56-E304-4DF4-B8D2-7A282CB6B511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -162,21 +162,9 @@
     <t>TC02_CreateAccountTest</t>
   </si>
   <si>
-    <t>Create new user with India Address</t>
-  </si>
-  <si>
     <t>Jane</t>
   </si>
   <si>
-    <t>Amdavad</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
     <t>380023</t>
   </si>
   <si>
@@ -186,9 +174,6 @@
     <t>best@email.com</t>
   </si>
   <si>
-    <t>42, Kamal Estate, Near Kamal Restaurant, Ram Nagar</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -466,6 +451,21 @@
   </si>
   <si>
     <t>jytesh</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>DHA Phase 5</t>
+  </si>
+  <si>
+    <t>Sindh</t>
+  </si>
+  <si>
+    <t>Create new user with PK Address</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -897,10 +897,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -928,7 +928,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1006,19 +1006,19 @@
         <v>11235</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>34</v>
@@ -1027,22 +1027,22 @@
         <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,77 +1127,77 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>1337</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>1547</v>
       </c>
       <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
         <v>103</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A954124-2682-439B-BF75-C124F90C5D43}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1275,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1286,16 +1286,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>1245</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496EF85-5873-4562-AF45-3630E5F53D1F}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,174 +1332,174 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>1137</v>
       </c>
       <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2">
         <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>1138</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3">
         <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>1139</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>200</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>1140</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>1141</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>1142</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G7">
         <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1533,129 +1533,129 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>1113</v>
       </c>
       <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
         <v>118</v>
       </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>1114</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
         <v>125</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B4">
         <v>1115</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>1116</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1690,27 +1690,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>1467</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/data/testData.xlsx
+++ b/src/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jytesh.punjwani\Documents\GitHub\10pplaywright-framework\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EFBB56-E304-4DF4-B8D2-7A282CB6B511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF1BA49-07F0-49E2-807E-6C47E5A95FD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="ContactUsTest" sheetId="9" r:id="rId3"/>
     <sheet name="LoginTest" sheetId="2" r:id="rId4"/>
     <sheet name="RESTUserTest" sheetId="8" r:id="rId5"/>
-    <sheet name="SOAPAccountServiceTest" sheetId="11" r:id="rId6"/>
-    <sheet name="DatabaseTest" sheetId="10" r:id="rId7"/>
+    <sheet name="DatabaseTest" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
   <si>
     <t>TestID</t>
   </si>
@@ -186,9 +185,6 @@
     <t>CreateAccountTest</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -198,9 +194,6 @@
     <t>Operation</t>
   </si>
   <si>
-    <t>Xpath</t>
-  </si>
-  <si>
     <t>RESTUserTest</t>
   </si>
   <si>
@@ -367,81 +360,6 @@
   </si>
   <si>
     <t>DownloadTest</t>
-  </si>
-  <si>
-    <t>Create Account</t>
-  </si>
-  <si>
-    <t>SOAP Test to Create Account</t>
-  </si>
-  <si>
-    <t>TC01_AccountCreateRequest</t>
-  </si>
-  <si>
-    <t>AccountCreateRequest.xml</t>
-  </si>
-  <si>
-    <t>//*[local-name()='Country'][1]//*[local-name()='name']</t>
-  </si>
-  <si>
-    <t>Saint</t>
-  </si>
-  <si>
-    <t>//*[local-name()='reason']</t>
-  </si>
-  <si>
-    <t>New user created successfully.</t>
-  </si>
-  <si>
-    <t>/accountservice/ws</t>
-  </si>
-  <si>
-    <t>Account Login</t>
-  </si>
-  <si>
-    <t>AccountLoginRequest.xml</t>
-  </si>
-  <si>
-    <t>TC02_AccountLoginRequest</t>
-  </si>
-  <si>
-    <t>SOAP Test to Login to Account</t>
-  </si>
-  <si>
-    <t>Login Successful</t>
-  </si>
-  <si>
-    <t>Account Logout</t>
-  </si>
-  <si>
-    <t>AccountLogoutRequest.xml</t>
-  </si>
-  <si>
-    <t>TC03_AccountLogoutRequest</t>
-  </si>
-  <si>
-    <t>SOAP Test toLogout of Account</t>
-  </si>
-  <si>
-    <t>Logout Successful</t>
-  </si>
-  <si>
-    <t>Country Search</t>
-  </si>
-  <si>
-    <t>CountrySearchRequest.xml</t>
-  </si>
-  <si>
-    <t>TC04_CountrySearchRequest</t>
-  </si>
-  <si>
-    <t>SOAP Test to Search Country</t>
-  </si>
-  <si>
-    <t>SOAPAccountServiceTest</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>JamesB</t>
@@ -808,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,7 +774,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -867,7 +785,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -878,7 +796,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -889,21 +807,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +835,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1006,7 +913,7 @@
         <v>11235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>46</v>
@@ -1027,16 +934,16 @@
         <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>44</v>
@@ -1107,7 +1014,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D14"/>
+      <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,77 +1034,77 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>1337</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
-        <v>99</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>1547</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
       <c r="F3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
         <v>101</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1122,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1258,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1275,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1295,7 +1202,7 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1311,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496EF85-5873-4562-AF45-3630E5F53D1F}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,174 +1239,174 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>1137</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2">
         <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>1138</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3">
         <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>1139</v>
       </c>
       <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
       </c>
       <c r="G4">
         <v>200</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>1140</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>1141</v>
       </c>
       <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
       </c>
       <c r="G6">
         <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>1142</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7">
         <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1509,171 +1416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41D663D-6548-4F04-A1E9-0786B9531E75}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2">
-        <v>1113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3">
-        <v>1114</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4">
-        <v>1115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5">
-        <v>1116</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://www.dneonline.com/calculator.asmx" xr:uid="{EFA8ECE6-D98B-4C10-B14A-FF147F2F058F}"/>
-    <hyperlink ref="E3:E5" r:id="rId2" display="http://www.dneonline.com/calculator.asmx" xr:uid="{9242A9CC-F295-4A61-BBEB-CB1691521678}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66E855F-71DD-4AFC-9C48-E6F935E4E730}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,27 +1437,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>1467</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/data/testData.xlsx
+++ b/src/resources/data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jytesh.punjwani\Documents\GitHub\10pplaywright-framework\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF1BA49-07F0-49E2-807E-6C47E5A95FD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83AD7D0-B8E1-4E8C-98C8-5C8AC35FD60B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
   <si>
     <t>TestID</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Create new user with PK Address</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,7 +802,7 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
